--- a/Fire_Alarm/SRS.update1.xlsx
+++ b/Fire_Alarm/SRS.update1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TAG</t>
   </si>
@@ -51,91 +51,46 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">we will use 16*2 HD44780 charcter LCD </t>
-  </si>
-  <si>
-    <t>we need to develop a driver for the lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we will use LM35 temperature sensor </t>
-  </si>
-  <si>
-    <t>we will use BUZZAR3V , small buzzer operates on 3 v</t>
-  </si>
-  <si>
     <t>SRS_001</t>
   </si>
   <si>
-    <t xml:space="preserve">we will need to clear the  LCD each time before writing to make sure that  we are writing  only the correct data , to do that we need to use  Write_Command , and give the LCD the right clearing command </t>
-  </si>
-  <si>
     <t>SRS_002</t>
   </si>
   <si>
     <t>SRS_003</t>
   </si>
   <si>
-    <t xml:space="preserve">we will need a sensor driver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the sensor measure the temperature from -1 c  to 100 c and mape it to  from 0 V to 1 V , that means 0.01 v to each 1 c temp , that’s very low range of voltage wont make us able to diffrintiate clearly between temps , so we will use a diff. opamp with x10 gain to amplifay the sensor o/p voltage .
-the ADC module on the AVR ,operates only from 0 to 5 V so , it is not supporting -ve voltages ,so we will need to use non inverting level shifting shifting amplifaying opamp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">we need an ADC DRIVER </t>
-  </si>
-  <si>
-    <t>we will need a buzzer driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the APP will call Buzzer Buzzer_On  function , when the return read from read_sensor exceed the configurable temperature with the configurable tolerence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the APP will call Buzzer Buzzer_Off function , when the return read from ead_sensor return back to the less than  configurable threshold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">we need a DIO Driver </t>
-  </si>
-  <si>
     <t>SRS_004</t>
   </si>
   <si>
     <t>SRS_005</t>
   </si>
   <si>
+    <t>The system will fire the alarm by using 5V BUZZER  if the temperature of the room reached the required threshold.</t>
+  </si>
+  <si>
     <t>SRS_006</t>
   </si>
   <si>
-    <t>SRS_007</t>
-  </si>
-  <si>
-    <t>SRS_008</t>
-  </si>
-  <si>
-    <t>SRS_009</t>
-  </si>
-  <si>
-    <t>SRS_010</t>
-  </si>
-  <si>
-    <t>SRS_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the user will be able to config the threshold temp and the tolerance.
-So we will use a config.h file making the user to be able to statically configure both the threshold and the timer </t>
-  </si>
-  <si>
-    <t>SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we will define a  variable called : Alarm_count , it will count how many times the the temp. exceed the thrsh. , by increament the counter each time the buzzer_On  function called , we will reaset the variable after it reaches
- 100 times    </t>
-  </si>
-  <si>
-    <t>SRS_014</t>
+    <t xml:space="preserve">The measured temperature will be always displayed on The LCD (16*2 HD44780).
+The system will count how many time the temperature exceed the configurable threshold and display it on LCD.
+</t>
+  </si>
+  <si>
+    <t>The "LCD" Displays the Temperature "TEMP : " as String and numeric representation in the first line and in the second line will be the Counter as String and numeric representation as the following example :
+                           TEMP : 25 
+                           COUNT : 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The System will measure the room temperature using the sensor "LM 35", the temperature sensor connected to a certain analogue to digital converter "ADC" pin.
+The sensor measure the temperature from 0 C  to 100 C and map it to  from 0 V to 1 V.
+</t>
+  </si>
+  <si>
+    <t>The  threshold temp and the tolerance will be configurable by changing the initial value from configuration file.</t>
+  </si>
+  <si>
+    <t>The counter will be reset automatically if the number of the times that the temperature exceed the threshold to 100.</t>
   </si>
 </sst>
 </file>
@@ -178,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,19 +142,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,8 +175,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B15" totalsRowShown="0">
-  <autoFilter ref="A1:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="TAG" dataDxfId="1"/>
     <tableColumn id="2" name="Requirement " dataDxfId="0"/>
@@ -499,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,120 +464,56 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Fire_Alarm/SRS.update1.xlsx
+++ b/Fire_Alarm/SRS.update1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.mamdooh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.mamdooh\Desktop\cdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TAG</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>The counter will be reset automatically if the number of the times that the temperature exceed the threshold to 100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRS_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the change on the LCD must be after certain time to keep the data change on it as smooth as possible </t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -175,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="TAG" dataDxfId="1"/>
     <tableColumn id="2" name="Requirement " dataDxfId="0"/>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +525,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
